--- a/Example_Data/Tarland_Scotland/Observations/Coull_ChemObs.xlsx
+++ b/Example_Data/Tarland_Scotland/Observations/Coull_ChemObs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\SimplyP\Example_Data\Tarland_Scotland\Observations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="18195" windowHeight="9270"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="18198" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,6 +575,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -617,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,9 +658,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,6 +710,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -864,15 +906,15 @@
   <dimension ref="A1:F777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>36153</v>
       </c>
@@ -903,7 +945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>36156</v>
       </c>
@@ -914,7 +956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>36159</v>
       </c>
@@ -925,7 +967,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>36167</v>
       </c>
@@ -936,7 +978,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>36174</v>
       </c>
@@ -944,7 +986,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>36180</v>
       </c>
@@ -952,7 +994,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>36188</v>
       </c>
@@ -960,7 +1002,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>36195</v>
       </c>
@@ -968,7 +1010,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>36202</v>
       </c>
@@ -976,7 +1018,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>36205</v>
       </c>
@@ -987,7 +1029,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>36206</v>
       </c>
@@ -998,7 +1040,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>36207</v>
       </c>
@@ -1009,7 +1051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>36209</v>
       </c>
@@ -1017,7 +1059,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>36210</v>
       </c>
@@ -1025,7 +1067,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>36214</v>
       </c>
@@ -1033,7 +1075,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>36216</v>
       </c>
@@ -1044,7 +1086,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>36217</v>
       </c>
@@ -1055,12 +1097,12 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>36222</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>36223</v>
       </c>
@@ -1071,7 +1113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>36229</v>
       </c>
@@ -1079,12 +1121,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>36236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>36243</v>
       </c>
@@ -1092,17 +1134,17 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>36250</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>36257</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>36264</v>
       </c>
@@ -1110,7 +1152,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>36265</v>
       </c>
@@ -1121,7 +1163,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>36268</v>
       </c>
@@ -1129,7 +1171,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>36269</v>
       </c>
@@ -1137,7 +1179,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>36270</v>
       </c>
@@ -1148,7 +1190,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>36271</v>
       </c>
@@ -1159,37 +1201,37 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>36272</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>36274</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>36276</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>36278</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>36280</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>36282</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>36285</v>
       </c>
@@ -1197,17 +1239,17 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>36287</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>36289</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>36292</v>
       </c>
@@ -1215,7 +1257,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>36294</v>
       </c>
@@ -1223,7 +1265,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>36297</v>
       </c>
@@ -1231,7 +1273,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>36299</v>
       </c>
@@ -1239,7 +1281,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>36301</v>
       </c>
@@ -1247,7 +1289,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>36306</v>
       </c>
@@ -1255,7 +1297,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>36309</v>
       </c>
@@ -1263,7 +1305,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>36311</v>
       </c>
@@ -1271,7 +1313,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>36313</v>
       </c>
@@ -1279,7 +1321,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>36315</v>
       </c>
@@ -1287,7 +1329,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>36317</v>
       </c>
@@ -1298,7 +1340,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>36318</v>
       </c>
@@ -1309,7 +1351,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>36320</v>
       </c>
@@ -1317,7 +1359,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>36322</v>
       </c>
@@ -1325,7 +1367,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>36325</v>
       </c>
@@ -1333,7 +1375,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>36327</v>
       </c>
@@ -1341,7 +1383,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>36329</v>
       </c>
@@ -1349,7 +1391,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>36332</v>
       </c>
@@ -1357,7 +1399,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>36334</v>
       </c>
@@ -1365,7 +1407,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>36336</v>
       </c>
@@ -1373,7 +1415,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>36339</v>
       </c>
@@ -1381,7 +1423,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>36341</v>
       </c>
@@ -1389,7 +1431,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>36343</v>
       </c>
@@ -1397,7 +1439,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>36346</v>
       </c>
@@ -1405,7 +1447,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>36347</v>
       </c>
@@ -1416,7 +1458,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>36348</v>
       </c>
@@ -1427,7 +1469,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>36349</v>
       </c>
@@ -1435,7 +1477,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>36351</v>
       </c>
@@ -1446,7 +1488,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>36352</v>
       </c>
@@ -1457,7 +1499,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>36355</v>
       </c>
@@ -1465,7 +1507,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>36358</v>
       </c>
@@ -1473,7 +1515,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>36360</v>
       </c>
@@ -1481,7 +1523,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>36362</v>
       </c>
@@ -1489,7 +1531,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>36364</v>
       </c>
@@ -1497,7 +1539,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>36367</v>
       </c>
@@ -1505,7 +1547,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>36369</v>
       </c>
@@ -1513,7 +1555,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>36371</v>
       </c>
@@ -1521,7 +1563,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>36374</v>
       </c>
@@ -1529,7 +1571,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>36376</v>
       </c>
@@ -1537,7 +1579,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>36378</v>
       </c>
@@ -1545,7 +1587,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>36381</v>
       </c>
@@ -1553,7 +1595,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>36383</v>
       </c>
@@ -1561,7 +1603,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>36385</v>
       </c>
@@ -1569,7 +1611,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>36388</v>
       </c>
@@ -1577,7 +1619,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>36390</v>
       </c>
@@ -1585,7 +1627,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>36399</v>
       </c>
@@ -1593,7 +1635,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>36401</v>
       </c>
@@ -1601,7 +1643,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>36404</v>
       </c>
@@ -1609,7 +1651,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>36406</v>
       </c>
@@ -1617,7 +1659,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>36409</v>
       </c>
@@ -1625,7 +1667,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>36410</v>
       </c>
@@ -1633,7 +1675,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>36411</v>
       </c>
@@ -1641,7 +1683,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>36413</v>
       </c>
@@ -1649,7 +1691,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>36416</v>
       </c>
@@ -1657,7 +1699,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>36418</v>
       </c>
@@ -1665,7 +1707,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>36420</v>
       </c>
@@ -1673,7 +1715,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>36423</v>
       </c>
@@ -1684,7 +1726,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>36424</v>
       </c>
@@ -1695,7 +1737,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>36425</v>
       </c>
@@ -1703,7 +1745,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>36426</v>
       </c>
@@ -1711,7 +1753,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>36427</v>
       </c>
@@ -1719,7 +1761,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>36428</v>
       </c>
@@ -1727,7 +1769,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>36429</v>
       </c>
@@ -1735,7 +1777,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>36431</v>
       </c>
@@ -1743,7 +1785,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>36432</v>
       </c>
@@ -1751,7 +1793,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>36433</v>
       </c>
@@ -1759,7 +1801,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>36439</v>
       </c>
@@ -1767,7 +1809,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>36446</v>
       </c>
@@ -1775,7 +1817,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>36453</v>
       </c>
@@ -1783,7 +1825,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>36454</v>
       </c>
@@ -1791,7 +1833,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>36455</v>
       </c>
@@ -1802,7 +1844,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>36456</v>
       </c>
@@ -1813,7 +1855,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>36457</v>
       </c>
@@ -1821,7 +1863,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>36458</v>
       </c>
@@ -1829,7 +1871,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>36462</v>
       </c>
@@ -1837,7 +1879,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>36469</v>
       </c>
@@ -1845,7 +1887,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>36474</v>
       </c>
@@ -1853,7 +1895,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>36481</v>
       </c>
@@ -1861,7 +1903,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>36500</v>
       </c>
@@ -1872,7 +1914,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>36501</v>
       </c>
@@ -1883,7 +1925,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>36502</v>
       </c>
@@ -1894,7 +1936,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>36573</v>
       </c>
@@ -1902,7 +1944,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>36579</v>
       </c>
@@ -1910,7 +1952,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>36586</v>
       </c>
@@ -1918,7 +1960,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>36591</v>
       </c>
@@ -1926,7 +1968,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>36600</v>
       </c>
@@ -1934,7 +1976,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>36607</v>
       </c>
@@ -1942,7 +1984,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>36614</v>
       </c>
@@ -1950,7 +1992,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>36621</v>
       </c>
@@ -1958,7 +2000,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>36627</v>
       </c>
@@ -1966,7 +2008,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>36628</v>
       </c>
@@ -1974,7 +2016,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>36629</v>
       </c>
@@ -1982,7 +2024,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>36643</v>
       </c>
@@ -1990,7 +2032,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>36677</v>
       </c>
@@ -1998,7 +2040,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>36684</v>
       </c>
@@ -2009,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>36691</v>
       </c>
@@ -2020,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>36698</v>
       </c>
@@ -2031,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>36705</v>
       </c>
@@ -2042,7 +2084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>36712</v>
       </c>
@@ -2053,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>36719</v>
       </c>
@@ -2064,7 +2106,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>36726</v>
       </c>
@@ -2075,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>36733</v>
       </c>
@@ -2086,7 +2128,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>36740</v>
       </c>
@@ -2097,7 +2139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>36747</v>
       </c>
@@ -2111,7 +2153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>36754</v>
       </c>
@@ -2125,7 +2167,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>36757</v>
       </c>
@@ -2139,7 +2181,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>36761</v>
       </c>
@@ -2153,7 +2195,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>36768</v>
       </c>
@@ -2167,7 +2209,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>36775</v>
       </c>
@@ -2181,7 +2223,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>36782</v>
       </c>
@@ -2195,7 +2237,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>36788</v>
       </c>
@@ -2209,7 +2251,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>36789</v>
       </c>
@@ -2223,7 +2265,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>36804</v>
       </c>
@@ -2237,7 +2279,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>36808</v>
       </c>
@@ -2251,7 +2293,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>36809</v>
       </c>
@@ -2265,7 +2307,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>36810</v>
       </c>
@@ -2279,7 +2321,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>36811</v>
       </c>
@@ -2293,7 +2335,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>36826</v>
       </c>
@@ -2307,7 +2349,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>36831</v>
       </c>
@@ -2321,7 +2363,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>36836</v>
       </c>
@@ -2335,7 +2377,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>36837</v>
       </c>
@@ -2349,7 +2391,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>36845</v>
       </c>
@@ -2363,7 +2405,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>36880</v>
       </c>
@@ -2377,7 +2419,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>36886</v>
       </c>
@@ -2391,7 +2433,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>36894</v>
       </c>
@@ -2405,7 +2447,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>37032</v>
       </c>
@@ -2419,7 +2461,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>37039</v>
       </c>
@@ -2433,7 +2475,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>37046</v>
       </c>
@@ -2447,7 +2489,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>37053</v>
       </c>
@@ -2461,7 +2503,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>37060</v>
       </c>
@@ -2475,7 +2517,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>37067</v>
       </c>
@@ -2489,7 +2531,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>37083</v>
       </c>
@@ -2503,7 +2545,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>37090</v>
       </c>
@@ -2517,7 +2559,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>37097</v>
       </c>
@@ -2531,7 +2573,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>37104</v>
       </c>
@@ -2545,7 +2587,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>37111</v>
       </c>
@@ -2559,7 +2601,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>37118</v>
       </c>
@@ -2573,7 +2615,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>37122</v>
       </c>
@@ -2587,7 +2629,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>37123</v>
       </c>
@@ -2601,7 +2643,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>37125</v>
       </c>
@@ -2615,7 +2657,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>37132</v>
       </c>
@@ -2629,7 +2671,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>37139</v>
       </c>
@@ -2643,7 +2685,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>37146</v>
       </c>
@@ -2657,7 +2699,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>37153</v>
       </c>
@@ -2671,7 +2713,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>37161</v>
       </c>
@@ -2682,7 +2724,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>37197</v>
       </c>
@@ -2696,7 +2738,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>37202</v>
       </c>
@@ -2710,7 +2752,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>37205</v>
       </c>
@@ -2724,7 +2766,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>37206</v>
       </c>
@@ -2738,7 +2780,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>37207</v>
       </c>
@@ -2752,7 +2794,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>37212</v>
       </c>
@@ -2766,7 +2808,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>37216</v>
       </c>
@@ -2780,7 +2822,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>37223</v>
       </c>
@@ -2794,7 +2836,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>37225</v>
       </c>
@@ -2808,7 +2850,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>37226</v>
       </c>
@@ -2822,7 +2864,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>37229</v>
       </c>
@@ -2836,7 +2878,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>37233</v>
       </c>
@@ -2850,7 +2892,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>37243</v>
       </c>
@@ -2864,7 +2906,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>37246</v>
       </c>
@@ -2878,7 +2920,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>37249</v>
       </c>
@@ -2892,7 +2934,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>37250</v>
       </c>
@@ -2906,7 +2948,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>37253</v>
       </c>
@@ -2920,7 +2962,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>37273</v>
       </c>
@@ -2934,7 +2976,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>37278</v>
       </c>
@@ -2948,7 +2990,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>37279</v>
       </c>
@@ -2962,7 +3004,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>37280</v>
       </c>
@@ -2976,7 +3018,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>37282</v>
       </c>
@@ -2990,7 +3032,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>37283</v>
       </c>
@@ -3004,7 +3046,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>37284</v>
       </c>
@@ -3018,7 +3060,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>37285</v>
       </c>
@@ -3032,7 +3074,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>37298</v>
       </c>
@@ -3043,7 +3085,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>37311</v>
       </c>
@@ -3054,7 +3096,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>37330</v>
       </c>
@@ -3065,7 +3107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>37336</v>
       </c>
@@ -3076,7 +3118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>37342</v>
       </c>
@@ -3087,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>37349</v>
       </c>
@@ -3098,7 +3140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>37356</v>
       </c>
@@ -3109,7 +3151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>37363</v>
       </c>
@@ -3120,7 +3162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>37368</v>
       </c>
@@ -3131,7 +3173,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>37375</v>
       </c>
@@ -3142,7 +3184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>37409</v>
       </c>
@@ -3153,7 +3195,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>37413</v>
       </c>
@@ -3164,7 +3206,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>37419</v>
       </c>
@@ -3175,7 +3217,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>37426</v>
       </c>
@@ -3186,7 +3228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>37432</v>
       </c>
@@ -3197,7 +3239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>37440</v>
       </c>
@@ -3208,7 +3250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>37447</v>
       </c>
@@ -3219,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>37454</v>
       </c>
@@ -3230,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>37456</v>
       </c>
@@ -3241,7 +3283,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>37457</v>
       </c>
@@ -3252,7 +3294,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>37458</v>
       </c>
@@ -3263,7 +3305,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>37461</v>
       </c>
@@ -3274,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>37468</v>
       </c>
@@ -3285,7 +3327,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>37471</v>
       </c>
@@ -3296,7 +3338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>37472</v>
       </c>
@@ -3307,7 +3349,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>37475</v>
       </c>
@@ -3318,7 +3360,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>37481</v>
       </c>
@@ -3329,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>37489</v>
       </c>
@@ -3340,7 +3382,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>37496</v>
       </c>
@@ -3351,7 +3393,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>37503</v>
       </c>
@@ -3362,7 +3404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>37506</v>
       </c>
@@ -3373,7 +3415,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>37507</v>
       </c>
@@ -3384,7 +3426,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>37508</v>
       </c>
@@ -3395,7 +3437,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>37510</v>
       </c>
@@ -3406,7 +3448,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>37517</v>
       </c>
@@ -3417,7 +3459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>37524</v>
       </c>
@@ -3428,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>37531</v>
       </c>
@@ -3439,7 +3481,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>37538</v>
       </c>
@@ -3450,7 +3492,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>37552</v>
       </c>
@@ -3461,7 +3503,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>37554</v>
       </c>
@@ -3472,7 +3514,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>37572</v>
       </c>
@@ -3483,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>37631</v>
       </c>
@@ -3494,7 +3536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>37637</v>
       </c>
@@ -3505,7 +3547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>37641</v>
       </c>
@@ -3516,7 +3558,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>37643</v>
       </c>
@@ -3527,7 +3569,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>37644</v>
       </c>
@@ -3538,7 +3580,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>37649</v>
       </c>
@@ -3549,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>37656</v>
       </c>
@@ -3560,7 +3602,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>37664</v>
       </c>
@@ -3571,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>37671</v>
       </c>
@@ -3582,7 +3624,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>37678</v>
       </c>
@@ -3593,7 +3635,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>37685</v>
       </c>
@@ -3604,7 +3646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>37692</v>
       </c>
@@ -3615,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>37699</v>
       </c>
@@ -3626,7 +3668,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>37706</v>
       </c>
@@ -3637,7 +3679,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>37713</v>
       </c>
@@ -3648,7 +3690,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>37728</v>
       </c>
@@ -3659,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>37734</v>
       </c>
@@ -3670,7 +3712,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>37741</v>
       </c>
@@ -3681,7 +3723,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>37743</v>
       </c>
@@ -3692,7 +3734,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>37744</v>
       </c>
@@ -3703,7 +3745,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>37748</v>
       </c>
@@ -3714,7 +3756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>37755</v>
       </c>
@@ -3725,7 +3767,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>37762</v>
       </c>
@@ -3736,7 +3778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>37769</v>
       </c>
@@ -3750,7 +3792,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>37776</v>
       </c>
@@ -3764,7 +3806,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>37783</v>
       </c>
@@ -3778,7 +3820,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>37790</v>
       </c>
@@ -3792,7 +3834,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>37797</v>
       </c>
@@ -3806,7 +3848,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>37804</v>
       </c>
@@ -3820,7 +3862,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>37839</v>
       </c>
@@ -3834,7 +3876,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>37846</v>
       </c>
@@ -3848,7 +3890,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>37853</v>
       </c>
@@ -3862,7 +3904,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>37860</v>
       </c>
@@ -3876,7 +3918,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>37867</v>
       </c>
@@ -3890,7 +3932,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>37874</v>
       </c>
@@ -3904,7 +3946,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>37881</v>
       </c>
@@ -3918,7 +3960,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>37888</v>
       </c>
@@ -3929,7 +3971,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>37895</v>
       </c>
@@ -3940,7 +3982,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>37901</v>
       </c>
@@ -3951,7 +3993,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>37909</v>
       </c>
@@ -3962,7 +4004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>37917</v>
       </c>
@@ -3973,7 +4015,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>37923</v>
       </c>
@@ -3984,7 +4026,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>37930</v>
       </c>
@@ -3995,7 +4037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>37937</v>
       </c>
@@ -4006,7 +4048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>37944</v>
       </c>
@@ -4017,7 +4059,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>37952</v>
       </c>
@@ -4028,7 +4070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>37958</v>
       </c>
@@ -4039,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>37965</v>
       </c>
@@ -4050,7 +4092,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>37972</v>
       </c>
@@ -4064,7 +4106,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>37976</v>
       </c>
@@ -4078,7 +4120,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>37978</v>
       </c>
@@ -4092,7 +4134,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>38008</v>
       </c>
@@ -4106,7 +4148,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>38014</v>
       </c>
@@ -4120,7 +4162,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>38019</v>
       </c>
@@ -4134,7 +4176,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>38020</v>
       </c>
@@ -4148,7 +4190,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>38021</v>
       </c>
@@ -4162,7 +4204,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>38028</v>
       </c>
@@ -4176,7 +4218,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>38035</v>
       </c>
@@ -4190,7 +4232,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>38050</v>
       </c>
@@ -4204,7 +4246,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>38052</v>
       </c>
@@ -4218,7 +4260,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>38053</v>
       </c>
@@ -4232,7 +4274,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>38054</v>
       </c>
@@ -4246,7 +4288,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>38055</v>
       </c>
@@ -4260,7 +4302,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>38056</v>
       </c>
@@ -4274,7 +4316,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>38063</v>
       </c>
@@ -4288,7 +4330,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>38070</v>
       </c>
@@ -4302,7 +4344,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>38075</v>
       </c>
@@ -4322,7 +4364,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>38076</v>
       </c>
@@ -4342,7 +4384,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>38077</v>
       </c>
@@ -4362,7 +4404,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>38078</v>
       </c>
@@ -4382,7 +4424,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>38079</v>
       </c>
@@ -4402,7 +4444,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>38080</v>
       </c>
@@ -4422,7 +4464,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>38081</v>
       </c>
@@ -4442,7 +4484,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>38082</v>
       </c>
@@ -4462,7 +4504,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>38083</v>
       </c>
@@ -4482,7 +4524,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>38084</v>
       </c>
@@ -4502,7 +4544,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>38085</v>
       </c>
@@ -4522,7 +4564,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>38086</v>
       </c>
@@ -4542,7 +4584,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>38087</v>
       </c>
@@ -4562,7 +4604,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>38088</v>
       </c>
@@ -4582,7 +4624,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>38089</v>
       </c>
@@ -4602,7 +4644,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>38090</v>
       </c>
@@ -4622,7 +4664,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>38091</v>
       </c>
@@ -4642,7 +4684,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>38092</v>
       </c>
@@ -4662,7 +4704,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>38093</v>
       </c>
@@ -4682,7 +4724,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>38095</v>
       </c>
@@ -4702,7 +4744,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>38096</v>
       </c>
@@ -4722,7 +4764,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>38097</v>
       </c>
@@ -4742,7 +4784,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>38098</v>
       </c>
@@ -4762,7 +4804,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>38099</v>
       </c>
@@ -4782,7 +4824,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>38100</v>
       </c>
@@ -4802,7 +4844,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>38101</v>
       </c>
@@ -4822,7 +4864,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>38102</v>
       </c>
@@ -4842,7 +4884,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>38103</v>
       </c>
@@ -4862,7 +4904,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>38104</v>
       </c>
@@ -4882,7 +4924,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>38105</v>
       </c>
@@ -4902,7 +4944,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>38106</v>
       </c>
@@ -4922,7 +4964,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>38107</v>
       </c>
@@ -4942,7 +4984,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>38108</v>
       </c>
@@ -4962,7 +5004,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>38109</v>
       </c>
@@ -4982,7 +5024,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>38110</v>
       </c>
@@ -5002,7 +5044,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>38111</v>
       </c>
@@ -5022,7 +5064,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>38112</v>
       </c>
@@ -5042,7 +5084,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>38113</v>
       </c>
@@ -5062,7 +5104,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>38114</v>
       </c>
@@ -5082,7 +5124,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>38115</v>
       </c>
@@ -5102,7 +5144,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>38116</v>
       </c>
@@ -5122,7 +5164,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>38117</v>
       </c>
@@ -5142,7 +5184,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>38118</v>
       </c>
@@ -5162,7 +5204,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>38119</v>
       </c>
@@ -5182,7 +5224,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>38120</v>
       </c>
@@ -5202,7 +5244,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>38121</v>
       </c>
@@ -5222,7 +5264,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>38123</v>
       </c>
@@ -5242,7 +5284,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>38124</v>
       </c>
@@ -5262,7 +5304,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>38125</v>
       </c>
@@ -5282,7 +5324,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>38126</v>
       </c>
@@ -5302,7 +5344,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>38127</v>
       </c>
@@ -5322,7 +5364,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>38128</v>
       </c>
@@ -5342,7 +5384,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>38129</v>
       </c>
@@ -5362,7 +5404,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>38130</v>
       </c>
@@ -5382,7 +5424,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>38131</v>
       </c>
@@ -5402,7 +5444,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>38132</v>
       </c>
@@ -5422,7 +5464,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>38133</v>
       </c>
@@ -5442,7 +5484,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>38134</v>
       </c>
@@ -5462,7 +5504,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>38135</v>
       </c>
@@ -5482,7 +5524,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>38136</v>
       </c>
@@ -5502,7 +5544,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1">
         <v>38137</v>
       </c>
@@ -5522,7 +5564,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>38138</v>
       </c>
@@ -5542,7 +5584,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>38139</v>
       </c>
@@ -5562,7 +5604,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>38140</v>
       </c>
@@ -5582,7 +5624,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>38141</v>
       </c>
@@ -5602,7 +5644,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>38142</v>
       </c>
@@ -5622,7 +5664,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>38143</v>
       </c>
@@ -5642,7 +5684,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>38144</v>
       </c>
@@ -5662,7 +5704,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>38145</v>
       </c>
@@ -5682,7 +5724,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>38146</v>
       </c>
@@ -5702,7 +5744,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>38147</v>
       </c>
@@ -5722,7 +5764,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>38148</v>
       </c>
@@ -5742,7 +5784,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>38149</v>
       </c>
@@ -5762,7 +5804,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>38150</v>
       </c>
@@ -5782,7 +5824,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1">
         <v>38152</v>
       </c>
@@ -5802,7 +5844,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1">
         <v>38153</v>
       </c>
@@ -5822,7 +5864,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>38154</v>
       </c>
@@ -5842,7 +5884,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>38155</v>
       </c>
@@ -5862,7 +5904,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>38156</v>
       </c>
@@ -5882,7 +5924,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>38157</v>
       </c>
@@ -5902,7 +5944,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>38158</v>
       </c>
@@ -5922,7 +5964,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>38159</v>
       </c>
@@ -5942,7 +5984,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1">
         <v>38160</v>
       </c>
@@ -5962,7 +6004,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1">
         <v>38161</v>
       </c>
@@ -5982,7 +6024,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>38162</v>
       </c>
@@ -6002,7 +6044,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1">
         <v>38163</v>
       </c>
@@ -6022,7 +6064,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1">
         <v>38164</v>
       </c>
@@ -6042,7 +6084,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>38165</v>
       </c>
@@ -6062,7 +6104,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1">
         <v>38166</v>
       </c>
@@ -6082,7 +6124,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1">
         <v>38167</v>
       </c>
@@ -6102,7 +6144,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>38168</v>
       </c>
@@ -6122,7 +6164,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1">
         <v>38169</v>
       </c>
@@ -6142,7 +6184,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>38170</v>
       </c>
@@ -6162,7 +6204,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>38171</v>
       </c>
@@ -6182,7 +6224,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>38172</v>
       </c>
@@ -6202,7 +6244,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>38173</v>
       </c>
@@ -6222,7 +6264,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>38174</v>
       </c>
@@ -6242,7 +6284,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>38175</v>
       </c>
@@ -6262,7 +6304,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>38176</v>
       </c>
@@ -6282,7 +6324,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>38177</v>
       </c>
@@ -6302,7 +6344,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>38178</v>
       </c>
@@ -6322,7 +6364,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>38179</v>
       </c>
@@ -6342,7 +6384,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>38180</v>
       </c>
@@ -6362,7 +6404,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>38181</v>
       </c>
@@ -6382,7 +6424,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>38182</v>
       </c>
@@ -6402,7 +6444,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>38183</v>
       </c>
@@ -6422,7 +6464,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>38184</v>
       </c>
@@ -6442,7 +6484,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>38185</v>
       </c>
@@ -6462,7 +6504,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>38186</v>
       </c>
@@ -6482,7 +6524,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>38187</v>
       </c>
@@ -6499,7 +6541,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>38188</v>
       </c>
@@ -6519,7 +6561,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>38189</v>
       </c>
@@ -6539,7 +6581,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>38190</v>
       </c>
@@ -6559,7 +6601,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>38191</v>
       </c>
@@ -6579,7 +6621,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>38192</v>
       </c>
@@ -6599,7 +6641,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>38193</v>
       </c>
@@ -6619,7 +6661,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>38194</v>
       </c>
@@ -6639,7 +6681,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>38195</v>
       </c>
@@ -6659,7 +6701,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>38196</v>
       </c>
@@ -6679,7 +6721,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>38197</v>
       </c>
@@ -6699,7 +6741,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>38198</v>
       </c>
@@ -6719,7 +6761,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>38199</v>
       </c>
@@ -6739,7 +6781,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>38200</v>
       </c>
@@ -6759,7 +6801,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>38201</v>
       </c>
@@ -6779,7 +6821,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>38202</v>
       </c>
@@ -6799,7 +6841,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>38203</v>
       </c>
@@ -6819,7 +6861,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>38204</v>
       </c>
@@ -6839,7 +6881,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>38205</v>
       </c>
@@ -6859,7 +6901,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>38206</v>
       </c>
@@ -6879,7 +6921,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>38207</v>
       </c>
@@ -6899,7 +6941,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>38208</v>
       </c>
@@ -6919,7 +6961,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>38209</v>
       </c>
@@ -6939,7 +6981,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>38210</v>
       </c>
@@ -6959,7 +7001,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>38211</v>
       </c>
@@ -6979,7 +7021,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>38212</v>
       </c>
@@ -6999,7 +7041,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>38213</v>
       </c>
@@ -7019,7 +7061,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>38214</v>
       </c>
@@ -7039,7 +7081,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>38215</v>
       </c>
@@ -7059,7 +7101,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>38216</v>
       </c>
@@ -7079,7 +7121,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>38217</v>
       </c>
@@ -7099,7 +7141,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>38218</v>
       </c>
@@ -7119,7 +7161,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>38219</v>
       </c>
@@ -7139,7 +7181,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>38220</v>
       </c>
@@ -7159,7 +7201,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>38221</v>
       </c>
@@ -7179,7 +7221,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>38222</v>
       </c>
@@ -7199,7 +7241,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1">
         <v>38223</v>
       </c>
@@ -7219,7 +7261,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1">
         <v>38224</v>
       </c>
@@ -7239,7 +7281,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1">
         <v>38225</v>
       </c>
@@ -7259,7 +7301,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1">
         <v>38226</v>
       </c>
@@ -7279,7 +7321,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1">
         <v>38227</v>
       </c>
@@ -7299,7 +7341,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>38228</v>
       </c>
@@ -7319,7 +7361,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>38229</v>
       </c>
@@ -7339,7 +7381,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>38230</v>
       </c>
@@ -7359,7 +7401,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>38231</v>
       </c>
@@ -7379,7 +7421,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>38232</v>
       </c>
@@ -7399,7 +7441,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>38233</v>
       </c>
@@ -7419,7 +7461,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>38234</v>
       </c>
@@ -7439,7 +7481,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>38235</v>
       </c>
@@ -7459,7 +7501,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>38236</v>
       </c>
@@ -7479,7 +7521,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>38237</v>
       </c>
@@ -7499,7 +7541,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>38238</v>
       </c>
@@ -7519,7 +7561,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>38239</v>
       </c>
@@ -7539,7 +7581,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>38240</v>
       </c>
@@ -7559,7 +7601,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>38241</v>
       </c>
@@ -7579,7 +7621,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1">
         <v>38242</v>
       </c>
@@ -7599,7 +7641,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1">
         <v>38243</v>
       </c>
@@ -7619,7 +7661,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1">
         <v>38244</v>
       </c>
@@ -7639,7 +7681,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1">
         <v>38245</v>
       </c>
@@ -7659,7 +7701,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1">
         <v>38246</v>
       </c>
@@ -7679,7 +7721,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1">
         <v>38247</v>
       </c>
@@ -7699,7 +7741,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1">
         <v>38248</v>
       </c>
@@ -7719,7 +7761,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1">
         <v>38249</v>
       </c>
@@ -7739,7 +7781,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1">
         <v>38250</v>
       </c>
@@ -7759,7 +7801,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1">
         <v>38251</v>
       </c>
@@ -7779,7 +7821,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1">
         <v>38252</v>
       </c>
@@ -7799,7 +7841,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1">
         <v>38253</v>
       </c>
@@ -7819,7 +7861,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>38254</v>
       </c>
@@ -7839,7 +7881,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1">
         <v>38255</v>
       </c>
@@ -7859,7 +7901,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1">
         <v>38256</v>
       </c>
@@ -7879,7 +7921,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1">
         <v>38257</v>
       </c>
@@ -7899,7 +7941,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>38258</v>
       </c>
@@ -7919,7 +7961,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1">
         <v>38259</v>
       </c>
@@ -7939,7 +7981,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1">
         <v>38260</v>
       </c>
@@ -7959,7 +8001,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1">
         <v>38261</v>
       </c>
@@ -7979,7 +8021,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1">
         <v>38262</v>
       </c>
@@ -7999,7 +8041,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1">
         <v>38264</v>
       </c>
@@ -8019,7 +8061,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1">
         <v>38265</v>
       </c>
@@ -8039,7 +8081,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1">
         <v>38266</v>
       </c>
@@ -8059,7 +8101,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1">
         <v>38267</v>
       </c>
@@ -8079,7 +8121,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1">
         <v>38268</v>
       </c>
@@ -8099,7 +8141,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1">
         <v>38269</v>
       </c>
@@ -8119,7 +8161,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1">
         <v>38270</v>
       </c>
@@ -8139,7 +8181,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1">
         <v>38271</v>
       </c>
@@ -8159,7 +8201,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1">
         <v>38272</v>
       </c>
@@ -8179,7 +8221,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1">
         <v>38273</v>
       </c>
@@ -8199,7 +8241,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1">
         <v>38274</v>
       </c>
@@ -8219,7 +8261,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>38275</v>
       </c>
@@ -8239,7 +8281,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1">
         <v>38276</v>
       </c>
@@ -8259,7 +8301,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1">
         <v>38277</v>
       </c>
@@ -8279,7 +8321,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1">
         <v>38278</v>
       </c>
@@ -8299,7 +8341,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1">
         <v>38279</v>
       </c>
@@ -8319,7 +8361,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1">
         <v>38280</v>
       </c>
@@ -8339,7 +8381,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>38281</v>
       </c>
@@ -8359,7 +8401,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1">
         <v>38282</v>
       </c>
@@ -8379,7 +8421,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1">
         <v>38283</v>
       </c>
@@ -8399,7 +8441,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1">
         <v>38284</v>
       </c>
@@ -8419,7 +8461,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1">
         <v>38285</v>
       </c>
@@ -8439,7 +8481,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1">
         <v>38286</v>
       </c>
@@ -8459,7 +8501,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1">
         <v>38287</v>
       </c>
@@ -8479,7 +8521,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1">
         <v>38288</v>
       </c>
@@ -8499,7 +8541,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1">
         <v>38289</v>
       </c>
@@ -8519,7 +8561,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1">
         <v>38290</v>
       </c>
@@ -8539,7 +8581,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>38291</v>
       </c>
@@ -8559,7 +8601,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1">
         <v>38292</v>
       </c>
@@ -8579,7 +8621,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1">
         <v>38293</v>
       </c>
@@ -8599,7 +8641,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>38294</v>
       </c>
@@ -8619,7 +8661,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1">
         <v>38295</v>
       </c>
@@ -8639,7 +8681,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1">
         <v>38296</v>
       </c>
@@ -8659,7 +8701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1">
         <v>38297</v>
       </c>
@@ -8679,7 +8721,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1">
         <v>38298</v>
       </c>
@@ -8699,7 +8741,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1">
         <v>38299</v>
       </c>
@@ -8719,7 +8761,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1">
         <v>38300</v>
       </c>
@@ -8739,7 +8781,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1">
         <v>38301</v>
       </c>
@@ -8759,7 +8801,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1">
         <v>38302</v>
       </c>
@@ -8779,7 +8821,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1">
         <v>38303</v>
       </c>
@@ -8799,7 +8841,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1">
         <v>38304</v>
       </c>
@@ -8819,7 +8861,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1">
         <v>38305</v>
       </c>
@@ -8839,7 +8881,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
         <v>38306</v>
       </c>
@@ -8859,7 +8901,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>38307</v>
       </c>
@@ -8879,7 +8921,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
         <v>38308</v>
       </c>
@@ -8899,7 +8941,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
         <v>38309</v>
       </c>
@@ -8919,7 +8961,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
         <v>38310</v>
       </c>
@@ -8939,7 +8981,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>38311</v>
       </c>
@@ -8959,7 +9001,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1">
         <v>38312</v>
       </c>
@@ -8979,7 +9021,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1">
         <v>38313</v>
       </c>
@@ -8999,7 +9041,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1">
         <v>38314</v>
       </c>
@@ -9019,7 +9061,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1">
         <v>38315</v>
       </c>
@@ -9039,7 +9081,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1">
         <v>38316</v>
       </c>
@@ -9059,7 +9101,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1">
         <v>38317</v>
       </c>
@@ -9079,7 +9121,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1">
         <v>38318</v>
       </c>
@@ -9099,7 +9141,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1">
         <v>38319</v>
       </c>
@@ -9119,7 +9161,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1">
         <v>38320</v>
       </c>
@@ -9139,7 +9181,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1">
         <v>38321</v>
       </c>
@@ -9159,7 +9201,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>38322</v>
       </c>
@@ -9179,7 +9221,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>38323</v>
       </c>
@@ -9199,7 +9241,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1">
         <v>38324</v>
       </c>
@@ -9219,7 +9261,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1">
         <v>38325</v>
       </c>
@@ -9239,7 +9281,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1">
         <v>38326</v>
       </c>
@@ -9259,7 +9301,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1">
         <v>38327</v>
       </c>
@@ -9279,7 +9321,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1">
         <v>38328</v>
       </c>
@@ -9299,7 +9341,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1">
         <v>38329</v>
       </c>
@@ -9319,7 +9361,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1">
         <v>38330</v>
       </c>
@@ -9339,7 +9381,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1">
         <v>38331</v>
       </c>
@@ -9359,7 +9401,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1">
         <v>38333</v>
       </c>
@@ -9379,7 +9421,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1">
         <v>38334</v>
       </c>
@@ -9399,7 +9441,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1">
         <v>38335</v>
       </c>
@@ -9419,7 +9461,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1">
         <v>38336</v>
       </c>
@@ -9439,7 +9481,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1">
         <v>38337</v>
       </c>
@@ -9459,7 +9501,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1">
         <v>38338</v>
       </c>
@@ -9479,7 +9521,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1">
         <v>38339</v>
       </c>
@@ -9499,7 +9541,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1">
         <v>38341</v>
       </c>
@@ -9519,7 +9561,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1">
         <v>38343</v>
       </c>
@@ -9539,7 +9581,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1">
         <v>38344</v>
       </c>
@@ -9559,7 +9601,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1">
         <v>38345</v>
       </c>
@@ -9579,7 +9621,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1">
         <v>38346</v>
       </c>
@@ -9599,7 +9641,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1">
         <v>38347</v>
       </c>
@@ -9619,7 +9661,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1">
         <v>38348</v>
       </c>
@@ -9639,7 +9681,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1">
         <v>38349</v>
       </c>
@@ -9659,7 +9701,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1">
         <v>38350</v>
       </c>
@@ -9679,7 +9721,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1">
         <v>38351</v>
       </c>
@@ -9699,7 +9741,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1">
         <v>38352</v>
       </c>
@@ -9719,7 +9761,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1">
         <v>38353</v>
       </c>
@@ -9739,7 +9781,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1">
         <v>38354</v>
       </c>
@@ -9759,7 +9801,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1">
         <v>38355</v>
       </c>
@@ -9779,7 +9821,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1">
         <v>38356</v>
       </c>
@@ -9799,7 +9841,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1">
         <v>38357</v>
       </c>
@@ -9819,7 +9861,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1">
         <v>38358</v>
       </c>
@@ -9839,7 +9881,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1">
         <v>38359</v>
       </c>
@@ -9859,7 +9901,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1">
         <v>38360</v>
       </c>
@@ -9879,7 +9921,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1">
         <v>38361</v>
       </c>
@@ -9899,7 +9941,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1">
         <v>38362</v>
       </c>
@@ -9919,7 +9961,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1">
         <v>38363</v>
       </c>
@@ -9939,7 +9981,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1">
         <v>38364</v>
       </c>
@@ -9959,7 +10001,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1">
         <v>38365</v>
       </c>
@@ -9979,7 +10021,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1">
         <v>38366</v>
       </c>
@@ -9999,7 +10041,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1">
         <v>38367</v>
       </c>
@@ -10019,7 +10061,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1">
         <v>38368</v>
       </c>
@@ -10039,7 +10081,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1">
         <v>38369</v>
       </c>
@@ -10059,7 +10101,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1">
         <v>38370</v>
       </c>
@@ -10079,7 +10121,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="1">
         <v>38371</v>
       </c>
@@ -10099,7 +10141,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1">
         <v>38372</v>
       </c>
@@ -10119,7 +10161,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1">
         <v>38373</v>
       </c>
@@ -10139,7 +10181,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1">
         <v>38374</v>
       </c>
@@ -10159,7 +10201,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1">
         <v>38375</v>
       </c>
@@ -10179,7 +10221,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="1">
         <v>38376</v>
       </c>
@@ -10199,7 +10241,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1">
         <v>38377</v>
       </c>
@@ -10219,7 +10261,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1">
         <v>38378</v>
       </c>
@@ -10239,7 +10281,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1">
         <v>38379</v>
       </c>
@@ -10259,7 +10301,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1">
         <v>38380</v>
       </c>
@@ -10279,7 +10321,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1">
         <v>38382</v>
       </c>
@@ -10299,7 +10341,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1">
         <v>38383</v>
       </c>
@@ -10319,7 +10361,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1">
         <v>38384</v>
       </c>
@@ -10339,7 +10381,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1">
         <v>38385</v>
       </c>
@@ -10359,7 +10401,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1">
         <v>38386</v>
       </c>
@@ -10379,7 +10421,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1">
         <v>38387</v>
       </c>
@@ -10399,7 +10441,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1">
         <v>38388</v>
       </c>
@@ -10419,7 +10461,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1">
         <v>38389</v>
       </c>
@@ -10439,7 +10481,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1">
         <v>38390</v>
       </c>
@@ -10459,7 +10501,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1">
         <v>38391</v>
       </c>
@@ -10479,7 +10521,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1">
         <v>38392</v>
       </c>
@@ -10499,7 +10541,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="1">
         <v>38393</v>
       </c>
@@ -10519,7 +10561,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="1">
         <v>38394</v>
       </c>
@@ -10539,7 +10581,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1">
         <v>38395</v>
       </c>
@@ -10559,7 +10601,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1">
         <v>38396</v>
       </c>
@@ -10579,7 +10621,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1">
         <v>38397</v>
       </c>
@@ -10599,7 +10641,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1">
         <v>38398</v>
       </c>
@@ -10619,7 +10661,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1">
         <v>38399</v>
       </c>
@@ -10639,7 +10681,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1">
         <v>38400</v>
       </c>
@@ -10659,7 +10701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1">
         <v>38401</v>
       </c>
@@ -10679,7 +10721,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1">
         <v>38402</v>
       </c>
@@ -10699,7 +10741,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1">
         <v>38403</v>
       </c>
@@ -10719,7 +10761,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1">
         <v>38404</v>
       </c>
@@ -10739,7 +10781,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1">
         <v>38405</v>
       </c>
@@ -10759,7 +10801,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1">
         <v>38406</v>
       </c>
@@ -10779,7 +10821,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1">
         <v>38407</v>
       </c>
@@ -10799,7 +10841,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1">
         <v>38408</v>
       </c>
@@ -10819,7 +10861,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1">
         <v>38409</v>
       </c>
@@ -10839,7 +10881,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1">
         <v>38410</v>
       </c>
@@ -10859,7 +10901,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1">
         <v>38411</v>
       </c>
@@ -10879,7 +10921,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1">
         <v>38412</v>
       </c>
@@ -10899,7 +10941,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1">
         <v>38413</v>
       </c>
@@ -10919,7 +10961,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1">
         <v>38414</v>
       </c>
@@ -10939,7 +10981,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1">
         <v>38415</v>
       </c>
@@ -10959,7 +11001,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1">
         <v>38416</v>
       </c>
@@ -10979,7 +11021,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1">
         <v>38417</v>
       </c>
@@ -10999,7 +11041,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1">
         <v>38418</v>
       </c>
@@ -11019,7 +11061,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1">
         <v>38419</v>
       </c>
@@ -11039,7 +11081,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1">
         <v>38426</v>
       </c>
@@ -11059,7 +11101,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1">
         <v>38427</v>
       </c>
@@ -11079,7 +11121,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1">
         <v>38428</v>
       </c>
@@ -11099,7 +11141,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1">
         <v>38429</v>
       </c>
@@ -11119,7 +11161,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1">
         <v>38430</v>
       </c>
@@ -11139,7 +11181,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1">
         <v>38431</v>
       </c>
@@ -11159,7 +11201,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1">
         <v>38432</v>
       </c>
@@ -11179,7 +11221,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1">
         <v>38433</v>
       </c>
@@ -11199,7 +11241,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1">
         <v>38434</v>
       </c>
@@ -11219,7 +11261,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1">
         <v>38435</v>
       </c>
@@ -11239,7 +11281,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1">
         <v>38436</v>
       </c>
@@ -11259,7 +11301,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1">
         <v>38437</v>
       </c>
@@ -11279,7 +11321,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1">
         <v>38438</v>
       </c>
@@ -11299,7 +11341,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1">
         <v>38439</v>
       </c>
@@ -11319,7 +11361,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1">
         <v>38440</v>
       </c>
@@ -11339,7 +11381,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1">
         <v>38441</v>
       </c>
@@ -11359,7 +11401,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1">
         <v>38442</v>
       </c>
@@ -11379,7 +11421,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1">
         <v>38443</v>
       </c>
@@ -11399,7 +11441,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1">
         <v>38444</v>
       </c>
@@ -11419,7 +11461,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1">
         <v>38445</v>
       </c>
@@ -11439,7 +11481,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1">
         <v>38446</v>
       </c>
@@ -11459,7 +11501,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1">
         <v>38447</v>
       </c>
@@ -11479,7 +11521,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1">
         <v>38448</v>
       </c>
@@ -11499,7 +11541,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1">
         <v>38449</v>
       </c>
@@ -11519,7 +11561,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1">
         <v>38450</v>
       </c>
@@ -11539,7 +11581,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1">
         <v>38451</v>
       </c>
@@ -11559,7 +11601,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1">
         <v>38452</v>
       </c>
@@ -11579,7 +11621,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="1">
         <v>38453</v>
       </c>
@@ -11599,7 +11641,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="1">
         <v>38454</v>
       </c>
@@ -11619,7 +11661,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1">
         <v>38455</v>
       </c>
@@ -11639,7 +11681,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1">
         <v>38456</v>
       </c>
@@ -11659,7 +11701,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1">
         <v>38457</v>
       </c>
@@ -11679,7 +11721,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1">
         <v>38458</v>
       </c>
@@ -11699,7 +11741,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1">
         <v>38459</v>
       </c>
@@ -11719,7 +11761,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1">
         <v>38460</v>
       </c>
@@ -11739,7 +11781,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1">
         <v>38461</v>
       </c>
@@ -11759,7 +11801,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1">
         <v>38462</v>
       </c>
@@ -11779,7 +11821,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1">
         <v>38463</v>
       </c>
@@ -11799,7 +11841,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="1">
         <v>38464</v>
       </c>
@@ -11819,7 +11861,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1">
         <v>38465</v>
       </c>
@@ -11839,7 +11881,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1">
         <v>38466</v>
       </c>
@@ -11859,7 +11901,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1">
         <v>38467</v>
       </c>
@@ -11879,7 +11921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1">
         <v>38468</v>
       </c>
@@ -11899,7 +11941,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1">
         <v>38469</v>
       </c>
@@ -11919,7 +11961,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="1">
         <v>38470</v>
       </c>
@@ -11939,7 +11981,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1">
         <v>38471</v>
       </c>
@@ -11959,7 +12001,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1">
         <v>38472</v>
       </c>
@@ -11979,7 +12021,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1">
         <v>38473</v>
       </c>
@@ -11999,7 +12041,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1">
         <v>38474</v>
       </c>
@@ -12019,7 +12061,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1">
         <v>38475</v>
       </c>
@@ -12039,7 +12081,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1">
         <v>38476</v>
       </c>
@@ -12059,7 +12101,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1">
         <v>38477</v>
       </c>
@@ -12079,7 +12121,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1">
         <v>38478</v>
       </c>
@@ -12099,7 +12141,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1">
         <v>38479</v>
       </c>
@@ -12119,7 +12161,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1">
         <v>38480</v>
       </c>
@@ -12139,7 +12181,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1">
         <v>38488</v>
       </c>
@@ -12159,7 +12201,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="1">
         <v>38489</v>
       </c>
@@ -12179,7 +12221,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1">
         <v>38490</v>
       </c>
@@ -12199,7 +12241,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1">
         <v>38491</v>
       </c>
@@ -12219,7 +12261,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1">
         <v>38492</v>
       </c>
@@ -12239,7 +12281,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1">
         <v>38493</v>
       </c>
@@ -12259,7 +12301,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1">
         <v>38494</v>
       </c>
@@ -12279,7 +12321,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1">
         <v>38495</v>
       </c>
@@ -12299,7 +12341,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1">
         <v>38496</v>
       </c>
@@ -12319,7 +12361,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1">
         <v>38497</v>
       </c>
@@ -12339,7 +12381,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1">
         <v>38498</v>
       </c>
@@ -12359,7 +12401,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1">
         <v>38499</v>
       </c>
@@ -12379,7 +12421,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1">
         <v>38500</v>
       </c>
@@ -12399,7 +12441,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1">
         <v>38501</v>
       </c>
@@ -12419,7 +12461,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1">
         <v>38502</v>
       </c>
@@ -12439,7 +12481,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1">
         <v>38503</v>
       </c>
@@ -12459,7 +12501,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1">
         <v>38504</v>
       </c>
@@ -12479,7 +12521,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1">
         <v>38505</v>
       </c>
@@ -12499,7 +12541,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1">
         <v>38506</v>
       </c>
@@ -12519,7 +12561,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1">
         <v>38507</v>
       </c>
@@ -12539,7 +12581,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1">
         <v>38508</v>
       </c>
@@ -12559,7 +12601,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1">
         <v>38509</v>
       </c>
@@ -12579,7 +12621,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1">
         <v>38510</v>
       </c>
@@ -12599,7 +12641,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1">
         <v>38511</v>
       </c>
@@ -12619,7 +12661,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1">
         <v>38512</v>
       </c>
@@ -12639,7 +12681,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1">
         <v>38513</v>
       </c>
@@ -12659,7 +12701,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1">
         <v>38514</v>
       </c>
@@ -12679,7 +12721,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1">
         <v>38515</v>
       </c>
@@ -12699,7 +12741,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1">
         <v>38516</v>
       </c>
@@ -12719,7 +12761,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1">
         <v>38517</v>
       </c>
@@ -12739,7 +12781,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1">
         <v>38518</v>
       </c>
@@ -12759,7 +12801,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1">
         <v>38519</v>
       </c>
@@ -12779,7 +12821,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1">
         <v>38520</v>
       </c>
@@ -12799,7 +12841,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1">
         <v>38521</v>
       </c>
@@ -12819,7 +12861,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1">
         <v>38522</v>
       </c>
@@ -12839,7 +12881,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1">
         <v>38523</v>
       </c>
@@ -12859,7 +12901,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1">
         <v>38537</v>
       </c>
@@ -12873,7 +12915,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1">
         <v>38565</v>
       </c>
@@ -12887,7 +12929,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1">
         <v>38593</v>
       </c>
@@ -12901,7 +12943,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1">
         <v>38614</v>
       </c>
@@ -12915,7 +12957,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1">
         <v>38677</v>
       </c>
@@ -12929,7 +12971,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="1">
         <v>38705</v>
       </c>
@@ -12943,7 +12985,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="1">
         <v>38733</v>
       </c>
@@ -12957,7 +12999,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1">
         <v>38762</v>
       </c>
@@ -12971,7 +13013,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1">
         <v>38790</v>
       </c>
@@ -12985,7 +13027,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1">
         <v>38818</v>
       </c>
@@ -12999,7 +13041,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1">
         <v>38846</v>
       </c>
@@ -13013,7 +13055,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1">
         <v>38909</v>
       </c>
@@ -13027,7 +13069,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1">
         <v>39000</v>
       </c>
@@ -13041,7 +13083,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1">
         <v>39132</v>
       </c>
@@ -13055,7 +13097,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1">
         <v>39267</v>
       </c>
@@ -13069,7 +13111,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1">
         <v>39363</v>
       </c>
@@ -13083,7 +13125,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1">
         <v>39475</v>
       </c>
@@ -13097,7 +13139,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1">
         <v>39559</v>
       </c>
@@ -13111,7 +13153,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1">
         <v>39645</v>
       </c>
@@ -13125,7 +13167,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1">
         <v>39763</v>
       </c>
@@ -13139,7 +13181,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="1">
         <v>39825</v>
       </c>
@@ -13153,7 +13195,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="1">
         <v>39923</v>
       </c>
@@ -13167,7 +13209,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="1">
         <v>40016</v>
       </c>
@@ -13181,7 +13223,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="1">
         <v>40100</v>
       </c>
@@ -13195,7 +13237,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="1">
         <v>40162</v>
       </c>
@@ -13209,7 +13251,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="1">
         <v>40289</v>
       </c>
@@ -13223,7 +13265,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="1">
         <v>40393</v>
       </c>
@@ -13237,7 +13279,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="1">
         <v>40456</v>
       </c>
@@ -13251,7 +13293,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="1">
         <v>40561</v>
       </c>
@@ -13265,7 +13307,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="1">
         <v>40638</v>
       </c>
@@ -13279,7 +13321,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="1">
         <v>40728</v>
       </c>
@@ -13290,7 +13332,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="1">
         <v>40820</v>
       </c>
